--- a/Shares.xlsx
+++ b/Shares.xlsx
@@ -1,52 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Documents\GitHub\ASXscraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A731DCB9-DBA2-49BD-80C7-3A184C831951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7B834AD8-88A6-4AAD-8FA1-3D9F0D3889D9}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Shares" sheetId="1" r:id="rId1"/>
+    <sheet name="Shares" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,15 +419,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3714F3BE-4438-49D7-84F5-6342A299DA5D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B3:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AC8</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ALK</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ANZ</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BHP</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36.235</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CBA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>VUK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DHG</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4.035</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ERA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IAG</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JHG</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MPL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MPL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MQG</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>134.15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.212</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NAB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19.21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NHF</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PTR</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RIO</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>95.14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RNE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>S32</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>S32</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SCP</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WOW</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>WTC</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>27.88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>IDZ</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AMP</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ORE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Shares.xlsx
+++ b/Shares.xlsx
@@ -1,150 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Documents\GitHub\ASXscraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13A4B7F-C673-421B-B760-C521CBFA2EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2940" windowWidth="14730" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1020" yWindow="2940" windowWidth="14730" windowHeight="12735" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Shares" sheetId="1" r:id="rId1"/>
+    <sheet name="Shares" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>AC8</t>
-  </si>
-  <si>
-    <t>AGL</t>
-  </si>
-  <si>
-    <t>ALK</t>
-  </si>
-  <si>
-    <t>ANZ</t>
-  </si>
-  <si>
-    <t>BHP</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>CBA</t>
-  </si>
-  <si>
-    <t>VUK</t>
-  </si>
-  <si>
-    <t>DHG</t>
-  </si>
-  <si>
-    <t>ERA</t>
-  </si>
-  <si>
-    <t>NEC</t>
-  </si>
-  <si>
-    <t>IAG</t>
-  </si>
-  <si>
-    <t>JHG</t>
-  </si>
-  <si>
-    <t>MPL</t>
-  </si>
-  <si>
-    <t>MQG</t>
-  </si>
-  <si>
-    <t>MYR</t>
-  </si>
-  <si>
-    <t>NAB</t>
-  </si>
-  <si>
-    <t>NHF</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>PTR</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>RNE</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>SCP</t>
-  </si>
-  <si>
-    <t>WBC</t>
-  </si>
-  <si>
-    <t>WOW</t>
-  </si>
-  <si>
-    <t>WTC</t>
-  </si>
-  <si>
-    <t>IDZ</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>ASM</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -163,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -477,265 +419,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+    <row r="1">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AC8</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>13.45</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ALK</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1.41</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>19.309999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ANZ</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BHP</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>36.25</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>69.239999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>1.5549999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CBA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>69.23999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>VUK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.555</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DHG</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>3.99</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ERA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>0.155</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>2.11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IAG</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>4.79</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JHG</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>39.9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MPL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>2.73</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MQG</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>134.34</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NAB</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>19.22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NHF</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>4.51</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>0.11</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PTR</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RIO</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>95.45</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RNE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>S32</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>2.11</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SCP</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>18.66</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>WOW</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WTC</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>27.77</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IDZ</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AMP</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>1.42</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ORE</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>2.65</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>3.72</v>
       </c>
     </row>

--- a/Shares.xlsx
+++ b/Shares.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C33"/>
+  <dimension ref="B1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.14</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13.45</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="5">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.41</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.31</v>
+        <v>27.77</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36.25</v>
+        <v>43.02</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.38</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69.23999999999999</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.555</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.99</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.155</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="13">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.11</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="14">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.79</v>
+        <v>4.395</v>
       </c>
     </row>
     <row r="15">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39.9</v>
+        <v>56.26</v>
       </c>
     </row>
     <row r="16">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.73</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="17">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134.34</v>
+        <v>210.78</v>
       </c>
     </row>
     <row r="18">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.205</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="19">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19.22</v>
+        <v>29.01</v>
       </c>
     </row>
     <row r="20">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.51</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="21">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.11</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="22">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.16</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="23">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>95.45</v>
+        <v>101.86</v>
       </c>
     </row>
     <row r="24">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.028</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.11</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="26">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.25</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="27">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18.66</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="28">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>39.2</v>
+        <v>37.48</v>
       </c>
     </row>
     <row r="29">
@@ -706,17 +706,17 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27.77</v>
+        <v>53.86</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>IDZ</t>
+          <t>XRG</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.012</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="31">
@@ -726,17 +726,17 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.42</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>ORE</t>
+          <t>AKE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.65</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="33">
@@ -746,7 +746,17 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.72</v>
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VML</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.055</v>
       </c>
     </row>
   </sheetData>
